--- a/Document/服务端工作划分.xlsx
+++ b/Document/服务端工作划分.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>事项</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -175,6 +176,28 @@
   <si>
     <t>监听Game
 的网络层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移植</t>
+  </si>
+  <si>
+    <t>移植</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写</t>
+  </si>
+  <si>
+    <t>编写</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -322,9 +345,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -346,9 +378,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -361,12 +390,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -648,11 +680,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -662,9 +694,10 @@
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -680,15 +713,21 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F1" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -697,146 +736,188 @@
       <c r="E2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F2" s="27">
+        <v>43140</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F3" s="27">
+        <v>43140</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F4" s="27">
+        <v>43140</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="27">
+        <v>43140</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="27"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="27"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F8" s="27"/>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F9" s="27"/>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F10" s="27"/>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F11" s="27"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F12" s="27"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F13" s="27"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -845,280 +926,338 @@
       <c r="E14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="F14" s="27">
+        <v>43140</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="27">
+        <v>43140</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="27"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="27"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="27"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="27"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="27"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F21" s="27"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F22" s="27"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="22"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F23" s="27"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="22"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F24" s="27"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="27"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>18</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="27"/>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>19</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="27"/>
+      <c r="G27" s="26"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>20</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="9"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F28" s="27"/>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>21</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F29" s="27"/>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>22</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F30" s="27"/>
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>23</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F31" s="27"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>24</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F32" s="27"/>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>25</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F33" s="27"/>
+      <c r="G33" s="26"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>26</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="14"/>
+      <c r="C34" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F34" s="27"/>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>27</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="16"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F35" s="27"/>
+      <c r="G35" s="26"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>28</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="9"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F36" s="27"/>
+      <c r="G36" s="26"/>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>29</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="13" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F37" s="27"/>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>30</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="F38" s="27"/>
+      <c r="G38" s="26"/>
+    </row>
+    <row r="39" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>31</v>
       </c>
@@ -1126,8 +1265,10 @@
       <c r="C39" s="7"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="F39" s="27"/>
+      <c r="G39" s="26"/>
+    </row>
+    <row r="40" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>32</v>
       </c>
@@ -1135,8 +1276,10 @@
       <c r="C40" s="7"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="F40" s="27"/>
+      <c r="G40" s="26"/>
+    </row>
+    <row r="41" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>33</v>
       </c>
@@ -1144,8 +1287,10 @@
       <c r="C41" s="7"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="F41" s="27"/>
+      <c r="G41" s="26"/>
+    </row>
+    <row r="42" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>34</v>
       </c>
@@ -1153,8 +1298,10 @@
       <c r="C42" s="7"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="F42" s="27"/>
+      <c r="G42" s="26"/>
+    </row>
+    <row r="43" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>35</v>
       </c>
@@ -1162,8 +1309,10 @@
       <c r="C43" s="7"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="F43" s="27"/>
+      <c r="G43" s="26"/>
+    </row>
+    <row r="44" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>36</v>
       </c>
@@ -1171,8 +1320,10 @@
       <c r="C44" s="7"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="F44" s="27"/>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>37</v>
       </c>
@@ -1180,8 +1331,10 @@
       <c r="C45" s="7"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="F45" s="27"/>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>38</v>
       </c>
@@ -1189,8 +1342,10 @@
       <c r="C46" s="7"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="F46" s="27"/>
+      <c r="G46" s="26"/>
+    </row>
+    <row r="47" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>39</v>
       </c>
@@ -1198,8 +1353,10 @@
       <c r="C47" s="7"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="F47" s="27"/>
+      <c r="G47" s="26"/>
+    </row>
+    <row r="48" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>40</v>
       </c>
@@ -1207,8 +1364,10 @@
       <c r="C48" s="7"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="F48" s="27"/>
+      <c r="G48" s="26"/>
+    </row>
+    <row r="49" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>41</v>
       </c>
@@ -1216,8 +1375,10 @@
       <c r="C49" s="7"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="F49" s="27"/>
+      <c r="G49" s="26"/>
+    </row>
+    <row r="50" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>42</v>
       </c>
@@ -1225,8 +1386,10 @@
       <c r="C50" s="7"/>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="F50" s="27"/>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43</v>
       </c>
@@ -1234,8 +1397,10 @@
       <c r="C51" s="7"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="F51" s="27"/>
+      <c r="G51" s="26"/>
+    </row>
+    <row r="52" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44</v>
       </c>
@@ -1243,8 +1408,10 @@
       <c r="C52" s="7"/>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="F52" s="27"/>
+      <c r="G52" s="26"/>
+    </row>
+    <row r="53" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45</v>
       </c>
@@ -1252,8 +1419,10 @@
       <c r="C53" s="7"/>
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="F53" s="27"/>
+      <c r="G53" s="26"/>
+    </row>
+    <row r="54" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>46</v>
       </c>
@@ -1261,29 +1430,69 @@
       <c r="C54" s="7"/>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B16:B30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B31:B38"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B16:B30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DA7AAC00-29C4-4921-BCDE-D0EFD503FAAE}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G54</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676181DD-4F8F-453E-823B-C84E5EFFCB70}">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Document/服务端工作划分.xlsx
+++ b/Document/服务端工作划分.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>事项</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -198,6 +198,10 @@
   </si>
   <si>
     <t>编写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆逻辑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -345,60 +349,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -680,11 +684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -713,10 +717,10 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -727,7 +731,7 @@
       <c r="B2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -736,10 +740,10 @@
       <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="10">
         <v>43140</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -748,17 +752,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="14"/>
-      <c r="C3" s="24"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="10">
         <v>43140</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -767,17 +771,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="14"/>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="10">
         <v>43140</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -786,17 +790,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="24"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="10">
         <v>43140</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -812,8 +816,8 @@
         <v>3</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -825,8 +829,8 @@
         <v>4</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -835,623 +839,646 @@
       <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>43162</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F10" s="10"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="12"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="2">
         <v>0.2</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="C12" s="12"/>
       <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>43162</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="27">
-        <v>43140</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="10">
         <v>43140</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="26"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10">
+        <v>43140</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="26"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="14"/>
-      <c r="C18" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C18" s="18"/>
       <c r="D18" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="26"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="1" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="26"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="9"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F21" s="10"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="C22" s="25"/>
       <c r="D22" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="9"/>
+      <c r="C23" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="26"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="9"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="26"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="26"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>18</v>
-      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="26"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="14"/>
-      <c r="C27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="D27" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="26"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
+        <v>19</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>20</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="1" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="26"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>21</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="26"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>22</v>
-      </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D30" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="26"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>23</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="26"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>24</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="D32" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="26"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="14"/>
-      <c r="C33" s="18"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="26"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="14"/>
-      <c r="C34" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="C34" s="18"/>
       <c r="D34" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="26"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="14"/>
-      <c r="C35" s="11"/>
+      <c r="C35" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="D35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="26"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="14"/>
-      <c r="C36" s="12"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="26"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="14"/>
-      <c r="C37" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="C37" s="12"/>
       <c r="D37" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="26"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
+        <v>29</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>30</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="1" t="s">
+      <c r="B39" s="15"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="26"/>
-    </row>
-    <row r="39" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>31</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="1"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="26"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="7"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="26"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="7"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="26"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="7"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="26"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="7"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="26"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="7"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="26"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="7"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="26"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="7"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="26"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="7"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="26"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="7"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="26"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="7"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="26"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="7"/>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="26"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="7"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="26"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="7"/>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="26"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="7"/>
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="26"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="7"/>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="26"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>46</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B16:B30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C21"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B2:B14"/>
     <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B17:B31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B32:B39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1463,7 +1490,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G54</xm:sqref>
+          <xm:sqref>G2:G55</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Document/服务端工作划分.xlsx
+++ b/Document/服务端工作划分.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>事项</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -75,11 +75,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>监听Gate
-的网络层</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>发布自身的开启关闭消息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -129,10 +124,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>连接Login的网络层</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>逻辑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -202,6 +193,10 @@
   </si>
   <si>
     <t>登陆逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gate的负载均衡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -352,6 +347,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -395,12 +396,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,11 +679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12:G12"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -706,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -718,20 +713,20 @@
         <v>11</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -744,15 +739,15 @@
         <v>43140</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
@@ -763,15 +758,15 @@
         <v>43140</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -782,15 +777,15 @@
         <v>43140</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
@@ -801,16 +796,16 @@
         <v>43140</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -821,201 +816,193 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="17"/>
+        <v>8</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="10"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="18"/>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="5">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F9" s="10">
         <v>43162</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>43162</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.2</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="10"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="12"/>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10">
-        <v>43162</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>42</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>43140</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10">
+        <v>43140</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>17</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10">
-        <v>43140</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>13</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10">
-        <v>43140</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>14</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>26</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="10"/>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="18"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="10"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>16</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="24" t="s">
-        <v>7</v>
+      <c r="A19" s="1"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -1025,11 +1012,9 @@
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>17</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1039,10 +1024,10 @@
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="10"/>
@@ -1050,67 +1035,75 @@
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="10"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="24" t="s">
-        <v>37</v>
+    <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="10"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="25"/>
+    <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>19</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="10"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="25"/>
+    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>20</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="10"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="1"/>
+    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>21</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="10"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>18</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="11" t="s">
-        <v>12</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1118,27 +1111,31 @@
       <c r="F27" s="10"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>19</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="10"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>20</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="10"/>
@@ -1146,14 +1143,12 @@
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>21</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="11" t="s">
-        <v>8</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="10"/>
@@ -1161,12 +1156,14 @@
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>22</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="D31" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="10"/>
@@ -1174,16 +1171,12 @@
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>23</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="10"/>
@@ -1191,12 +1184,12 @@
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>24</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="17"/>
+        <v>28</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="10"/>
@@ -1204,12 +1197,14 @@
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>25</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="10"/>
@@ -1217,76 +1212,64 @@
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>26</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="11" t="s">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="10"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>27</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="10"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>28</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="10"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>29</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="10"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>30</v>
-      </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="10"/>
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="7"/>
@@ -1297,7 +1280,7 @@
     </row>
     <row r="41" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="7"/>
@@ -1308,7 +1291,7 @@
     </row>
     <row r="42" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="7"/>
@@ -1319,7 +1302,7 @@
     </row>
     <row r="43" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="7"/>
@@ -1330,7 +1313,7 @@
     </row>
     <row r="44" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="7"/>
@@ -1341,7 +1324,7 @@
     </row>
     <row r="45" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="7"/>
@@ -1352,7 +1335,7 @@
     </row>
     <row r="46" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="7"/>
@@ -1363,7 +1346,7 @@
     </row>
     <row r="47" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="7"/>
@@ -1374,7 +1357,7 @@
     </row>
     <row r="48" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="7"/>
@@ -1385,7 +1368,7 @@
     </row>
     <row r="49" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="7"/>
@@ -1396,7 +1379,7 @@
     </row>
     <row r="50" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="7"/>
@@ -1407,7 +1390,7 @@
     </row>
     <row r="51" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="7"/>
@@ -1416,69 +1399,23 @@
       <c r="F51" s="10"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>43</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="9"/>
-    </row>
-    <row r="53" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>44</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="9"/>
-    </row>
-    <row r="54" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>45</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>46</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="15">
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="B15:B27"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C15:C18"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B17:B31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C6:C10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1490,7 +1427,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G55</xm:sqref>
+          <xm:sqref>G2:G51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1510,12 +1447,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Document/服务端工作划分.xlsx
+++ b/Document/服务端工作划分.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>事项</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -347,55 +347,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -682,8 +682,8 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15:B27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -723,10 +723,10 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -746,8 +746,8 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
@@ -765,8 +765,8 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -784,8 +784,8 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
@@ -803,8 +803,8 @@
       <c r="A6" s="1">
         <v>7</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -818,8 +818,8 @@
       <c r="A7" s="1">
         <v>8</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
@@ -831,8 +831,8 @@
       <c r="A8" s="1">
         <v>9</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
@@ -844,8 +844,8 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="1" t="s">
         <v>43</v>
       </c>
@@ -861,8 +861,8 @@
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
@@ -880,8 +880,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -895,8 +895,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
@@ -908,10 +908,10 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -931,8 +931,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
@@ -950,58 +950,82 @@
       <c r="A15" s="1">
         <v>16</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9"/>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>43166</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>17</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9"/>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10">
+        <v>43166</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9"/>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>43166</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="27"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9"/>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>43166</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="26" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="24" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1013,8 +1037,8 @@
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="27"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1024,8 +1048,8 @@
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="27"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="1" t="s">
         <v>34</v>
       </c>
@@ -1035,8 +1059,8 @@
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="27"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="10"/>
@@ -1046,8 +1070,8 @@
       <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1061,8 +1085,8 @@
       <c r="A24" s="1">
         <v>19</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="21"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1074,8 +1098,8 @@
       <c r="A25" s="1">
         <v>20</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1087,8 +1111,8 @@
       <c r="A26" s="1">
         <v>21</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1102,8 +1126,8 @@
       <c r="A27" s="1">
         <v>22</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1115,10 +1139,10 @@
       <c r="A28" s="1">
         <v>23</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1132,8 +1156,8 @@
       <c r="A29" s="1">
         <v>24</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="1" t="s">
         <v>4</v>
       </c>
@@ -1145,8 +1169,8 @@
       <c r="A30" s="1">
         <v>25</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1158,8 +1182,8 @@
       <c r="A31" s="1">
         <v>26</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1173,8 +1197,8 @@
       <c r="A32" s="1">
         <v>27</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="21"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="1" t="s">
         <v>29</v>
       </c>
@@ -1186,8 +1210,8 @@
       <c r="A33" s="1">
         <v>28</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="1" t="s">
         <v>30</v>
       </c>
@@ -1199,8 +1223,8 @@
       <c r="A34" s="1">
         <v>29</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="18" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1214,8 +1238,8 @@
       <c r="A35" s="1">
         <v>30</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="20"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1401,21 +1425,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C15:C18"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="B28:B35"/>
     <mergeCell ref="B15:B27"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="C6:C10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/服务端工作划分.xlsx
+++ b/Document/服务端工作划分.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>事项</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -197,6 +197,10 @@
   </si>
   <si>
     <t>Gate的负载均衡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器ID生成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -347,12 +351,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -361,42 +401,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -679,11 +683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18:G18"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -723,10 +727,10 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -746,8 +750,8 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
@@ -765,8 +769,8 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -784,8 +788,8 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
@@ -803,8 +807,8 @@
       <c r="A6" s="1">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -818,8 +822,8 @@
       <c r="A7" s="1">
         <v>8</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
@@ -831,8 +835,8 @@
       <c r="A8" s="1">
         <v>9</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
@@ -844,8 +848,8 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="1" t="s">
         <v>43</v>
       </c>
@@ -861,8 +865,8 @@
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
@@ -880,8 +884,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -895,8 +899,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
@@ -908,10 +912,10 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -931,8 +935,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
@@ -950,13 +954,13 @@
       <c r="A15" s="1">
         <v>16</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="5">
@@ -973,9 +977,9 @@
       <c r="A16" s="1">
         <v>17</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="1" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="5">
@@ -990,9 +994,9 @@
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="1" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="5">
@@ -1007,9 +1011,9 @@
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="1" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="5">
@@ -1024,8 +1028,8 @@
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1037,8 +1041,8 @@
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="25"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1048,8 +1052,8 @@
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="1" t="s">
         <v>34</v>
       </c>
@@ -1059,23 +1063,21 @@
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="25"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="10"/>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>18</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="11" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="10"/>
@@ -1083,12 +1085,12 @@
     </row>
     <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>19</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="16"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="10"/>
@@ -1096,12 +1098,12 @@
     </row>
     <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>20</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="10"/>
@@ -1109,14 +1111,12 @@
     </row>
     <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>21</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="11" t="s">
-        <v>8</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="10"/>
@@ -1124,29 +1124,27 @@
     </row>
     <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>22</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D27" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="10"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>23</v>
-      </c>
-      <c r="B28" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="10"/>
@@ -1154,12 +1152,16 @@
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>24</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>26</v>
+      </c>
       <c r="D29" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="10"/>
@@ -1167,12 +1169,12 @@
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>25</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="10"/>
@@ -1180,14 +1182,12 @@
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>26</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="11" t="s">
-        <v>27</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="10"/>
@@ -1195,12 +1195,14 @@
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
+        <v>26</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="16"/>
       <c r="D32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="10"/>
@@ -1208,12 +1210,12 @@
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>28</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="10"/>
@@ -1221,14 +1223,12 @@
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>29</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="13" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="10"/>
@@ -1236,31 +1236,35 @@
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>30</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="25" t="s">
+        <v>31</v>
+      </c>
       <c r="D35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="10"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>31</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="10"/>
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="7"/>
@@ -1271,7 +1275,7 @@
     </row>
     <row r="38" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="7"/>
@@ -1282,7 +1286,7 @@
     </row>
     <row r="39" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="7"/>
@@ -1293,7 +1297,7 @@
     </row>
     <row r="40" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="7"/>
@@ -1304,7 +1308,7 @@
     </row>
     <row r="41" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="7"/>
@@ -1315,7 +1319,7 @@
     </row>
     <row r="42" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="7"/>
@@ -1326,7 +1330,7 @@
     </row>
     <row r="43" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="7"/>
@@ -1337,7 +1341,7 @@
     </row>
     <row r="44" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="7"/>
@@ -1348,7 +1352,7 @@
     </row>
     <row r="45" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="7"/>
@@ -1359,7 +1363,7 @@
     </row>
     <row r="46" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="7"/>
@@ -1370,7 +1374,7 @@
     </row>
     <row r="47" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="7"/>
@@ -1381,7 +1385,7 @@
     </row>
     <row r="48" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="7"/>
@@ -1392,7 +1396,7 @@
     </row>
     <row r="49" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="7"/>
@@ -1403,7 +1407,7 @@
     </row>
     <row r="50" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="7"/>
@@ -1414,7 +1418,7 @@
     </row>
     <row r="51" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="7"/>
@@ -1423,23 +1427,34 @@
       <c r="F51" s="10"/>
       <c r="G51" s="9"/>
     </row>
+    <row r="52" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>46</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="B15:B28"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C31"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="B15:B27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1451,7 +1466,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G51</xm:sqref>
+          <xm:sqref>G2:G52</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Document/服务端工作划分.xlsx
+++ b/Document/服务端工作划分.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>事项</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -101,10 +101,6 @@
   </si>
   <si>
     <t>Gate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>订阅LoginServer的开启关闭消息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -351,29 +347,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,21 +396,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -683,11 +679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -705,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -717,20 +713,20 @@
         <v>11</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -743,15 +739,15 @@
         <v>43140</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
@@ -762,15 +758,15 @@
         <v>43140</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
@@ -781,15 +777,15 @@
         <v>43140</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
@@ -800,15 +796,15 @@
         <v>43140</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>7</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -822,8 +818,8 @@
       <c r="A7" s="1">
         <v>8</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
@@ -835,8 +831,8 @@
       <c r="A8" s="1">
         <v>9</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
@@ -848,10 +844,10 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -860,15 +856,15 @@
         <v>43162</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -877,15 +873,15 @@
         <v>43162</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -899,8 +895,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
@@ -912,10 +908,10 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -928,15 +924,15 @@
         <v>43140</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
@@ -947,17 +943,17 @@
         <v>43140</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>16</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -970,15 +966,15 @@
         <v>43166</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>17</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
@@ -989,13 +985,13 @@
         <v>43166</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1006,13 +1002,13 @@
         <v>43166</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="4" t="s">
         <v>6</v>
       </c>
@@ -1023,14 +1019,14 @@
         <v>43166</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="23" t="s">
-        <v>35</v>
+      <c r="B19" s="17"/>
+      <c r="C19" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -1041,8 +1037,8 @@
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1052,10 +1048,10 @@
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="10"/>
@@ -1063,34 +1059,52 @@
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="9"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>43167</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="9"/>
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>43167</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>18</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="10"/>
@@ -1098,53 +1112,55 @@
     </row>
     <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>19</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="10"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>20</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="10"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>21</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="13" t="s">
-        <v>8</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="10"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B28" s="17"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="10"/>
@@ -1152,16 +1168,14 @@
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>23</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="25" t="s">
         <v>26</v>
       </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="D29" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="10"/>
@@ -1169,12 +1183,12 @@
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>24</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="26"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="10"/>
@@ -1182,12 +1196,12 @@
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>25</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="27"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="10"/>
@@ -1195,14 +1209,14 @@
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>26</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="10"/>
@@ -1210,61 +1224,53 @@
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>27</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="10"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>28</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="10"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>29</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="10"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>30</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="10"/>
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="7"/>
@@ -1275,7 +1281,7 @@
     </row>
     <row r="38" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="7"/>
@@ -1286,7 +1292,7 @@
     </row>
     <row r="39" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="7"/>
@@ -1297,7 +1303,7 @@
     </row>
     <row r="40" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="7"/>
@@ -1308,7 +1314,7 @@
     </row>
     <row r="41" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="7"/>
@@ -1319,7 +1325,7 @@
     </row>
     <row r="42" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="7"/>
@@ -1330,7 +1336,7 @@
     </row>
     <row r="43" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="7"/>
@@ -1341,7 +1347,7 @@
     </row>
     <row r="44" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="7"/>
@@ -1352,7 +1358,7 @@
     </row>
     <row r="45" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="7"/>
@@ -1363,7 +1369,7 @@
     </row>
     <row r="46" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="7"/>
@@ -1374,7 +1380,7 @@
     </row>
     <row r="47" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="7"/>
@@ -1385,7 +1391,7 @@
     </row>
     <row r="48" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="7"/>
@@ -1396,7 +1402,7 @@
     </row>
     <row r="49" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="7"/>
@@ -1405,56 +1411,23 @@
       <c r="F49" s="10"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>44</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>45</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>46</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="B15:B28"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C31"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B15:B25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1466,7 +1439,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G52</xm:sqref>
+          <xm:sqref>G2:G49</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1486,12 +1459,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
